--- a/tablesetup.xlsx
+++ b/tablesetup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="3920" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="25600" yWindow="2000" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Assignments</t>
   </si>
@@ -93,18 +93,12 @@
     <t>Rob</t>
   </si>
   <si>
-    <t>Contributors (bridge table)</t>
-  </si>
-  <si>
     <t>Inventory Manager</t>
   </si>
   <si>
     <t>github.com/KaseyMcCormick/manager</t>
   </si>
   <si>
-    <t>Users</t>
-  </si>
-  <si>
     <t>user_id</t>
   </si>
   <si>
@@ -133,13 +127,46 @@
   </si>
   <si>
     <t>rt_id</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Users </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contributors</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Contributors (bridge table) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contributions</t>
+    </r>
+  </si>
+  <si>
+    <t>article</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -182,6 +209,20 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -249,7 +290,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -263,8 +304,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -282,20 +325,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -628,7 +675,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -654,7 +701,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
       <c r="E1" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
@@ -665,10 +712,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
@@ -685,10 +732,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3">
@@ -730,7 +777,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="2"/>
@@ -746,10 +793,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -767,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -781,8 +828,12 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="3">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3">
@@ -795,11 +846,6 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3">
         <v>8</v>
@@ -811,15 +857,11 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="A11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3">
         <v>9</v>
@@ -831,14 +873,14 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="3">
-        <v>1</v>
+      <c r="A12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="3">
@@ -851,9 +893,15 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="3">
         <v>11</v>
@@ -879,10 +927,8 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="8"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3">
@@ -895,12 +941,10 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="A16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="10"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3">
@@ -913,11 +957,11 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="3">
-        <v>5</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1</v>
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -932,7 +976,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
@@ -950,7 +994,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -967,8 +1011,12 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="3">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3">
@@ -1065,12 +1113,11 @@
       <c r="H28" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tablesetup.xlsx
+++ b/tablesetup.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Assignments</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>article</t>
+  </si>
+  <si>
+    <t>Samwise</t>
+  </si>
+  <si>
+    <t>Ohio Nick</t>
   </si>
 </sst>
 </file>
@@ -290,7 +296,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -306,8 +312,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -327,8 +335,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -336,6 +351,7 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -343,6 +359,7 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -672,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -683,31 +700,33 @@
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="2"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.6640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="5" width="2.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.33203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="2"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.6640625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="46" customHeight="1">
+    <row r="1" spans="1:9" ht="46" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -717,17 +736,18 @@
       <c r="C2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -737,61 +757,65 @@
       <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3">
+      <c r="D3" s="12"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="3">
+      <c r="E4" s="2"/>
+      <c r="F4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="3">
+      <c r="E5" s="2"/>
+      <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="3">
+      <c r="E6" s="2"/>
+      <c r="F6" s="3">
         <v>4</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
@@ -800,16 +824,17 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="3">
+      <c r="E7" s="2"/>
+      <c r="F7" s="3">
         <v>5</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -818,16 +843,17 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="3">
+      <c r="E8" s="2"/>
+      <c r="F8" s="3">
         <v>6</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -836,43 +862,45 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="3">
+      <c r="E9" s="2"/>
+      <c r="F9" s="3">
         <v>7</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="D10" s="2"/>
-      <c r="E10" s="3">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="E10" s="2"/>
+      <c r="F10" s="3">
         <v>8</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3">
+      <c r="D11" s="8"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3">
         <v>9</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -882,17 +910,20 @@
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3">
+      <c r="D12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -902,61 +933,67 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3">
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3">
         <v>11</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="3">
+      <c r="E14" s="2"/>
+      <c r="F14" s="3">
         <v>12</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="3">
+      <c r="E15" s="2"/>
+      <c r="F15" s="3">
         <v>13</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="3">
+      <c r="E16" s="2"/>
+      <c r="F16" s="3">
         <v>14</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
@@ -965,16 +1002,17 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="3">
+      <c r="E17" s="2"/>
+      <c r="F17" s="3">
         <v>15</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="3">
         <v>5</v>
       </c>
@@ -983,16 +1021,17 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="3">
+      <c r="E18" s="2"/>
+      <c r="F18" s="3">
         <v>16</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="3">
         <v>6</v>
       </c>
@@ -1001,16 +1040,17 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="3">
+      <c r="E19" s="2"/>
+      <c r="F19" s="3">
         <v>17</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="3">
         <v>7</v>
       </c>
@@ -1019,30 +1059,32 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="3">
+      <c r="E20" s="2"/>
+      <c r="F20" s="3">
         <v>18</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="3">
+      <c r="E21" s="2"/>
+      <c r="F21" s="3">
         <v>19</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1051,8 +1093,9 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1061,8 +1104,9 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1071,8 +1115,9 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1081,8 +1126,9 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1091,8 +1137,9 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1101,8 +1148,9 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1111,13 +1159,14 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tablesetup.xlsx
+++ b/tablesetup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="2000" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,9 +108,6 @@
     <t>vimeo.com/klm-inventory</t>
   </si>
   <si>
-    <t>resource types</t>
-  </si>
-  <si>
     <t>id (PRIMARY KEY)</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>Ohio Nick</t>
+  </si>
+  <si>
+    <t>resource catigory</t>
   </si>
 </sst>
 </file>
@@ -692,7 +692,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -720,7 +720,7 @@
       <c r="D1" s="11"/>
       <c r="E1" s="5"/>
       <c r="F1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="5"/>
@@ -731,10 +731,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="2"/>
@@ -800,7 +800,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="2"/>
@@ -810,17 +810,17 @@
         <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -839,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -858,7 +858,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -895,7 +895,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -908,7 +908,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>27</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="2"/>
